--- a/questionnaires/RBDstandardized_questionnaireHHS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireHHS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.olander\OneDrive - World Food Programme\Desktop\standardization_hhquestionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A006B-989F-447F-B253-7309D700C841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A6A5B4-83D5-4DE6-99A2-9C644DC2642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,7 +1469,7 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6024,6 +6024,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -6240,12 +6246,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6256,6 +6256,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6274,23 +6291,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>

--- a/questionnaires/RBDstandardized_questionnaireHHS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireHHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A6A5B4-83D5-4DE6-99A2-9C644DC2642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09EB0B-97E5-484F-9762-D497E942DFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
@@ -3356,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2148"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6024,12 +6024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -6246,6 +6240,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6256,23 +6256,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6291,6 +6274,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>

--- a/questionnaires/RBDstandardized_questionnaireHHS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireHHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09EB0B-97E5-484F-9762-D497E942DFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90941C73-A14F-4739-A129-E60350B08040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -84,15 +84,9 @@
     <t>note</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>select_one Yesno</t>
   </si>
   <si>
@@ -144,322 +138,9 @@
     <t>Often (more than 10 times)</t>
   </si>
   <si>
-    <t>During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> note</t>
-  </si>
-  <si>
-    <t>note1</t>
-  </si>
-  <si>
-    <t>Vendre des actifs/biens non productifs du ménage (radio, meuble, réfrigérateur, télévision, bijoux etc.)</t>
-  </si>
-  <si>
-    <t>Réduire les dépenses non alimentaires essentielles telles que l’éducation, la santé (dont de médicaments)</t>
-  </si>
-  <si>
-    <t>Vendre des biens productifs ou des moyens de transport (machine à coudre, brouette, vélo, car, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dépenser l’épargne </t>
-  </si>
-  <si>
-    <t>Vendre la maison ou du terrain</t>
-  </si>
-  <si>
-    <t>Emprunter de l’argent / nourriture auprès d’un prêteur formel /banque</t>
-  </si>
-  <si>
-    <t>Retirer les enfants de l’école</t>
-  </si>
-  <si>
-    <t>Vendre les derniers animaux femelles</t>
-  </si>
-  <si>
-    <t>Mendier</t>
-  </si>
-  <si>
-    <t>Vendre plus d’animaux (non-productifs) que d’habitude</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>noteLhCSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If ‘No’, please clarify:  </t>
-  </si>
-  <si>
-    <t>Livelihood Copings Strategies Standard Module (pg. 45, https://documents.wfp.org/stellent/groups/public/documents/manual_guide_proced/wfp271449.pdf)</t>
-  </si>
-  <si>
-    <t>lhcsidomasset_s_yn</t>
-  </si>
-  <si>
-    <t>lhcsidomasset_s_lh2</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Reduce non-food expenses on health (including drugs) and education due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsihealth_c_yn</t>
-  </si>
-  <si>
-    <t>lhcsihealth_c_lh2</t>
-  </si>
-  <si>
-    <t>During the past 30 days, sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..) due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsiprodasset_c_yn</t>
-  </si>
-  <si>
-    <t>lhcsiprodasset_c_lh2</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  spend savings due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsisaving_s_yn</t>
-  </si>
-  <si>
-    <t>lhcsiborrowcash_s_yn</t>
-  </si>
-  <si>
-    <t>lhcsiresasset_e_yn</t>
-  </si>
-  <si>
-    <t>lhcsiresasset_e_lh2</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Borrow money / food  from a formal lender / bank due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsioutschool_c_yn</t>
-  </si>
-  <si>
-    <t>lhcsioutschool_c_lh2</t>
-  </si>
-  <si>
-    <t>lhcsifemanimal_e_yn</t>
-  </si>
-  <si>
-    <t>lhcsifemanimal_e_lh2</t>
-  </si>
-  <si>
-    <t>lhcsibegged_e_yn</t>
-  </si>
-  <si>
-    <t>lhcsibegged_e_lh2</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  sell more animals (non-productive) than usual due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsianimals_s_yn</t>
-  </si>
-  <si>
-    <t>Livelihood Copings Strategies Light Module (pg. 46, https://documents.wfp.org/stellent/groups/public/documents/manual_guide_proced/wfp271449.pdf)</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..) due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>lhcsidomasset_s_lt</t>
-  </si>
-  <si>
-    <t>lhcsihealth_c_lt</t>
-  </si>
-  <si>
-    <t>lhcsiprodasset_c_lt</t>
-  </si>
-  <si>
-    <t>lhcsisaving_s_lt</t>
-  </si>
-  <si>
-    <t>lhcsiborrowcash_s_lt</t>
-  </si>
-  <si>
-    <t>lhcsiresasset_e_lt</t>
-  </si>
-  <si>
-    <t>lhcsioutschool_c_lt</t>
-  </si>
-  <si>
-    <t>lhcsifemanimal_e_lt</t>
-  </si>
-  <si>
-    <t>lhcsibegged_e_lt</t>
-  </si>
-  <si>
-    <t>lhcsianimals_s_lt</t>
-  </si>
-  <si>
-    <t>noteLhCSIlt</t>
-  </si>
-  <si>
-    <t>note2</t>
-  </si>
-  <si>
-    <t>noteLhCSena</t>
-  </si>
-  <si>
-    <t>Livelihood Copings Strategies for Essential Needs Module (pg. 56 - 57, https://docs.wfp.org/api/documents/WFP-0000074197/download/?_ga=2.68640081.1716832850.1603811924-2059660384.1570005371)</t>
-  </si>
-  <si>
-    <t>note3</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your
-household have to engage in any of the
-following activities because there was not
-enough resources (food, cash, else) to meet
-essential needs (e.g. adequate shelter,
-education services, health services, food,
-etc)?</t>
-  </si>
-  <si>
-    <t>lhcsidomasset_s_ena</t>
-  </si>
-  <si>
-    <t>lhcsisaving_s_ena</t>
-  </si>
-  <si>
-    <t>lhcsiborrowcash_s_ena</t>
-  </si>
-  <si>
-    <t>lhcsiprodasset_c_ena</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..) because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  spend savings because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Borrow money / food  from a formal lender / bank because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>lhcsifemanimal_e_ena</t>
-  </si>
-  <si>
-    <t>lhcsibegged_e_ena</t>
-  </si>
-  <si>
-    <t>lhcsiresasset_e_ena</t>
-  </si>
-  <si>
-    <t>lhcsioutschool_c_ena</t>
-  </si>
-  <si>
-    <t>For what reasons (i.e. to meet which essential needs) did you (or other members in your household) adopt such coping strategy(ies)</t>
-  </si>
-  <si>
-    <t>lhcsiwhat4strategies_ena</t>
-  </si>
-  <si>
-    <t>select_one lhcsno</t>
-  </si>
-  <si>
-    <t>select_one lhcsena</t>
-  </si>
-  <si>
-    <t>select_one lhcsena_what4 or_other</t>
-  </si>
-  <si>
-    <t>select_one lhcslt</t>
-  </si>
-  <si>
-    <t>lhcsicrdtfood_s_ena</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..) because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to consume seed stocks that were to be
-held/saved for the next season because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..) due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  sell house or land due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> During the past 30 days, did anyone in your household have to:  Withdraw children from school due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  Sell last female animals due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Beg due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  sell last female animals due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  Beg due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: Purchase food on credit or borrowed food because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> During the past 30 days, did anyone in your household have to:  Withdraw children from school because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  Sell house or land because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  Beg because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>${lhcsidomasset_s_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsihealth_c_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsiprodasset_c_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsisaving_s_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsiborrowcash_s_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsiresasset_e_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsioutschool_c_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsifemanimal_e_yn} = 2</t>
-  </si>
-  <si>
-    <t>${lhcsibegged_e_yn} =2</t>
-  </si>
-  <si>
-    <t>${lhcsianimals_s_yn} = 2</t>
-  </si>
-  <si>
-    <t>lhcsiborrowcash_s_lh2</t>
-  </si>
-  <si>
-    <t>lhcsisaving_s_lh2</t>
-  </si>
-  <si>
-    <t>lhcsiseed_c_ena</t>
-  </si>
-  <si>
-    <t>lhcsianimals_s_lh2</t>
-  </si>
-  <si>
-    <t>select_one hhsfr</t>
-  </si>
-  <si>
     <t>noteHHS</t>
   </si>
   <si>
@@ -472,12 +153,6 @@
     <t>In the past [4 weeks/30 days], did you or any household member  go a whole day and night without eating anything at all becausethere was not enough food?</t>
   </si>
   <si>
-    <t>${HHSBedHung_YN} =1</t>
-  </si>
-  <si>
-    <t>${HHSNotEat_YN} =1</t>
-  </si>
-  <si>
     <t>In the past [4 weeks/30 days], did you or any household member go to sleep at night hungry because there was not enough food?</t>
   </si>
   <si>
@@ -517,9 +192,6 @@
     <t>HHhSBedHung_YN</t>
   </si>
   <si>
-    <t>${HHhSNoFood_YN} =1</t>
-  </si>
-  <si>
     <t>HHhSNoFood_FR</t>
   </si>
   <si>
@@ -529,33 +201,19 @@
     <t>HOUSEHOLD HUNGER SCALE</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
     <t>INDICE DOMESTIQUE DE LA FAIM</t>
+  </si>
+  <si>
+    <t>select_one HHSFr</t>
+  </si>
+  <si>
+    <t>${HHhSNoFood_YN} ='1'</t>
+  </si>
+  <si>
+    <t>${HHhSBedHung_YN} ='1'</t>
+  </si>
+  <si>
+    <t>${HHhSNotEat_YN} ='1'</t>
   </si>
 </sst>
 </file>
@@ -1466,10 +1124,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q262"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="A64:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1500,19 +1158,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="69" t="s">
         <v>5</v>
@@ -1544,108 +1202,108 @@
         <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,770 +1689,168 @@
       <c r="C64" s="29"/>
       <c r="D64" s="49"/>
     </row>
-    <row r="65" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J68" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J70" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" s="48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J71" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J72" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M72" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J74" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M74" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="N74" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>49</v>
-      </c>
+    <row r="65" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+    </row>
+    <row r="66" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="31"/>
+    </row>
+    <row r="72" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="31"/>
+    </row>
+    <row r="73" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="31"/>
+      <c r="D75" s="63"/>
+    </row>
+    <row r="76" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
       <c r="D76" s="64"/>
-      <c r="J76" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M76" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="N76" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J77" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J78" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M78" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J80" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M80" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J81" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J82" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="J83" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J84" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M84" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J85" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J86" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M86" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="31"/>
+    </row>
+    <row r="81" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="31"/>
+    </row>
+    <row r="82" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="31"/>
+    </row>
+    <row r="83" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="31"/>
+    </row>
+    <row r="85" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="31"/>
+    </row>
+    <row r="86" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J91" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J93" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J94" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J95" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J96" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D97" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J97" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="J98" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J99" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="31"/>
+    </row>
+    <row r="89" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="31"/>
+    </row>
+    <row r="90" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="31"/>
+    </row>
+    <row r="91" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="31"/>
+    </row>
+    <row r="92" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="31"/>
+    </row>
+    <row r="93" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="31"/>
+    </row>
+    <row r="94" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="31"/>
+    </row>
+    <row r="95" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="31"/>
+    </row>
+    <row r="96" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="31"/>
+    </row>
+    <row r="97" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="31"/>
+    </row>
+    <row r="98" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="31"/>
+    </row>
+    <row r="99" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="31"/>
+    </row>
+    <row r="100" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="31"/>
     </row>
-    <row r="101" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J103" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J105" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M105" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J106" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J107" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="48" t="s">
-        <v>43</v>
-      </c>
+    <row r="101" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="31"/>
+    </row>
+    <row r="102" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="31"/>
+      <c r="C102" s="65"/>
+    </row>
+    <row r="103" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="31"/>
+    </row>
+    <row r="104" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+    </row>
+    <row r="105" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="31"/>
+      <c r="C105" s="62"/>
+    </row>
+    <row r="106" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="31"/>
+      <c r="C106" s="62"/>
+    </row>
+    <row r="107" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="31"/>
+      <c r="C107" s="62"/>
+    </row>
+    <row r="108" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="31"/>
+      <c r="C108" s="65"/>
+    </row>
+    <row r="109" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="27"/>
+      <c r="C109" s="29"/>
       <c r="E109" s="30"/>
-      <c r="J109" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="M109" s="27"/>
     </row>
-    <row r="110" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J110" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>45</v>
-      </c>
+    <row r="110" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="31"/>
+      <c r="C110" s="62"/>
+    </row>
+    <row r="111" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="31"/>
+      <c r="C111" s="29"/>
       <c r="E111" s="30"/>
-      <c r="J111" s="48" t="s">
-        <v>14</v>
-      </c>
       <c r="M111" s="30"/>
     </row>
-    <row r="112" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J112" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>102</v>
-      </c>
+    <row r="112" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="31"/>
     </row>
     <row r="117" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
@@ -3356,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +2426,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -3384,30 +2440,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,44 +2471,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5974,7 +5030,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,24 +5041,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
